--- a/Sudoku.xlsx
+++ b/Sudoku.xlsx
@@ -26,15 +26,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,130 +658,177 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>8</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="I2">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="I3">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="I7">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="I8">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -762,7 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Sudoku.xlsx
+++ b/Sudoku.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39,8 +39,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -63,20 +69,302 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,181 +943,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2">
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="17">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2">
+      <c r="C2" s="8"/>
+      <c r="D2" s="7">
         <v>7</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="2">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="F2" s="14">
+        <v>8</v>
+      </c>
+      <c r="G2" s="13"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="2">
+      <c r="I2" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1"/>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="20">
+        <v>5</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="6">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5">
+        <v>9</v>
+      </c>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
         <v>9</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="14">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="F8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G8" s="13"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="I8" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16">
         <v>6</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -837,14 +1126,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C42:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="30">
+        <v>1</v>
+      </c>
+      <c r="D42" s="30">
+        <v>1</v>
+      </c>
+      <c r="E42" s="31">
+        <v>0</v>
+      </c>
+      <c r="F42" s="31">
+        <v>0</v>
+      </c>
+      <c r="G42" s="31">
+        <v>3</v>
+      </c>
+      <c r="H42" s="31">
+        <v>4</v>
+      </c>
+      <c r="I42" s="31">
+        <v>5</v>
+      </c>
+      <c r="J42" s="31">
+        <v>0</v>
+      </c>
+      <c r="K42" s="31">
+        <v>7</v>
+      </c>
+      <c r="L42" s="31">
+        <v>0</v>
+      </c>
+      <c r="M42" s="31">
+        <v>9</v>
+      </c>
+      <c r="N42" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="30">
+        <v>1</v>
+      </c>
+      <c r="D43" s="30">
+        <v>1</v>
+      </c>
+      <c r="E43" s="31">
+        <v>0</v>
+      </c>
+      <c r="F43" s="31">
+        <v>2</v>
+      </c>
+      <c r="G43" s="31">
+        <v>0</v>
+      </c>
+      <c r="H43" s="31">
+        <v>0</v>
+      </c>
+      <c r="I43" s="31">
+        <v>0</v>
+      </c>
+      <c r="J43" s="31">
+        <v>6</v>
+      </c>
+      <c r="K43" s="31">
+        <v>7</v>
+      </c>
+      <c r="L43" s="31">
+        <v>8</v>
+      </c>
+      <c r="M43" s="31">
+        <v>9</v>
+      </c>
+      <c r="N43" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="30">
+        <v>1</v>
+      </c>
+      <c r="D44" s="30">
+        <v>1</v>
+      </c>
+      <c r="E44" s="31">
+        <v>1</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0</v>
+      </c>
+      <c r="G44" s="31">
+        <v>0</v>
+      </c>
+      <c r="H44" s="31">
+        <v>0</v>
+      </c>
+      <c r="I44" s="31">
+        <v>5</v>
+      </c>
+      <c r="J44" s="31">
+        <v>0</v>
+      </c>
+      <c r="K44" s="31">
+        <v>7</v>
+      </c>
+      <c r="L44" s="31">
+        <v>8</v>
+      </c>
+      <c r="M44" s="31">
+        <v>9</v>
+      </c>
+      <c r="N44" s="29">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sudoku.xlsx
+++ b/Sudoku.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -267,11 +267,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +445,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,6 +1247,269 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>0</v>
+      </c>
+      <c r="B12" s="41">
+        <v>2</v>
+      </c>
+      <c r="C12" s="42">
+        <v>6</v>
+      </c>
+      <c r="D12" s="41">
+        <v>4</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0</v>
+      </c>
+      <c r="G12" s="41">
+        <v>8</v>
+      </c>
+      <c r="H12" s="41">
+        <v>1</v>
+      </c>
+      <c r="I12" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
+        <v>3</v>
+      </c>
+      <c r="B13" s="36">
+        <v>0</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="44">
+        <v>7</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="45">
+        <v>8</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
+      <c r="I13" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
+        <v>4</v>
+      </c>
+      <c r="B14" s="36">
+        <v>0</v>
+      </c>
+      <c r="C14" s="37">
+        <v>0</v>
+      </c>
+      <c r="D14" s="44">
+        <v>6</v>
+      </c>
+      <c r="E14" s="44">
+        <v>5</v>
+      </c>
+      <c r="F14" s="37">
+        <v>0</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0</v>
+      </c>
+      <c r="H14" s="36">
+        <v>0</v>
+      </c>
+      <c r="I14" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>0</v>
+      </c>
+      <c r="B15" s="41">
+        <v>5</v>
+      </c>
+      <c r="C15" s="42">
+        <v>2</v>
+      </c>
+      <c r="D15" s="41">
+        <v>1</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="42">
+        <v>7</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="41">
+        <v>9</v>
+      </c>
+      <c r="I15" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>0</v>
+      </c>
+      <c r="B16" s="36">
+        <v>0</v>
+      </c>
+      <c r="C16" s="45">
+        <v>3</v>
+      </c>
+      <c r="D16" s="44">
+        <v>9</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="45">
+        <v>5</v>
+      </c>
+      <c r="G16" s="44">
+        <v>1</v>
+      </c>
+      <c r="H16" s="36">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
+        <v>0</v>
+      </c>
+      <c r="B17" s="46">
+        <v>4</v>
+      </c>
+      <c r="C17" s="40">
+        <v>0</v>
+      </c>
+      <c r="D17" s="46">
+        <v>3</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <v>2</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0</v>
+      </c>
+      <c r="H17" s="46">
+        <v>5</v>
+      </c>
+      <c r="I17" s="47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>1</v>
+      </c>
+      <c r="B18" s="36">
+        <v>0</v>
+      </c>
+      <c r="C18" s="37">
+        <v>0</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0</v>
+      </c>
+      <c r="E18" s="44">
+        <v>3</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
+      <c r="H18" s="36">
+        <v>0</v>
+      </c>
+      <c r="I18" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>5</v>
+      </c>
+      <c r="B19" s="36">
+        <v>0</v>
+      </c>
+      <c r="C19" s="45">
+        <v>7</v>
+      </c>
+      <c r="D19" s="44">
+        <v>2</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0</v>
+      </c>
+      <c r="F19" s="45">
+        <v>4</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0</v>
+      </c>
+      <c r="H19" s="36">
+        <v>0</v>
+      </c>
+      <c r="I19" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
+        <v>0</v>
+      </c>
+      <c r="B20" s="46">
+        <v>3</v>
+      </c>
+      <c r="C20" s="47">
+        <v>8</v>
+      </c>
+      <c r="D20" s="46">
+        <v>5</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0</v>
+      </c>
+      <c r="F20" s="40">
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
+        <v>4</v>
+      </c>
+      <c r="H20" s="46">
+        <v>6</v>
+      </c>
+      <c r="I20" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1128,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C42:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="L42" sqref="L42:L44"/>
     </sheetView>
   </sheetViews>

--- a/Sudoku.xlsx
+++ b/Sudoku.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -45,8 +45,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -347,11 +353,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,6 +633,172 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,275 +1100,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>6</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>9</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>8</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78">
+        <v>7</v>
+      </c>
+      <c r="B1" s="79">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86">
+        <v>6</v>
+      </c>
+      <c r="D1" s="78">
+        <v>4</v>
+      </c>
+      <c r="E1" s="79">
+        <v>9</v>
+      </c>
+      <c r="F1" s="80">
+        <v>3</v>
+      </c>
+      <c r="G1" s="89">
+        <v>8</v>
+      </c>
+      <c r="H1" s="79">
+        <v>1</v>
+      </c>
+      <c r="I1" s="80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="81">
+        <v>3</v>
+      </c>
+      <c r="B2" s="77">
+        <v>1</v>
+      </c>
+      <c r="C2" s="87">
+        <v>5</v>
+      </c>
+      <c r="D2" s="81">
+        <v>7</v>
+      </c>
+      <c r="E2" s="77">
+        <v>2</v>
+      </c>
+      <c r="F2" s="82">
+        <v>8</v>
+      </c>
+      <c r="G2" s="90">
+        <v>9</v>
+      </c>
+      <c r="H2" s="77">
+        <v>4</v>
+      </c>
+      <c r="I2" s="82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="92">
+        <v>4</v>
+      </c>
+      <c r="B3" s="93">
+        <v>8</v>
+      </c>
+      <c r="C3" s="94">
+        <v>9</v>
+      </c>
+      <c r="D3" s="92">
+        <v>6</v>
+      </c>
+      <c r="E3" s="93">
+        <v>5</v>
+      </c>
+      <c r="F3" s="95">
+        <v>1</v>
+      </c>
+      <c r="G3" s="96">
+        <v>2</v>
+      </c>
+      <c r="H3" s="93">
+        <v>3</v>
+      </c>
+      <c r="I3" s="95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78">
+        <v>8</v>
+      </c>
+      <c r="B4" s="79">
+        <v>5</v>
+      </c>
+      <c r="C4" s="86">
+        <v>2</v>
+      </c>
+      <c r="D4" s="78">
+        <v>1</v>
+      </c>
+      <c r="E4" s="79">
+        <v>4</v>
+      </c>
+      <c r="F4" s="80">
+        <v>7</v>
+      </c>
+      <c r="G4" s="89">
+        <v>6</v>
+      </c>
+      <c r="H4" s="79">
+        <v>9</v>
+      </c>
+      <c r="I4" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="81">
+        <v>6</v>
+      </c>
+      <c r="B5" s="77">
+        <v>7</v>
+      </c>
+      <c r="C5" s="87">
+        <v>3</v>
+      </c>
+      <c r="D5" s="81">
+        <v>9</v>
+      </c>
+      <c r="E5" s="77">
+        <v>8</v>
+      </c>
+      <c r="F5" s="82">
+        <v>5</v>
+      </c>
+      <c r="G5" s="90">
+        <v>1</v>
+      </c>
+      <c r="H5" s="77">
+        <v>2</v>
+      </c>
+      <c r="I5" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="83">
+        <v>9</v>
+      </c>
+      <c r="B6" s="84">
+        <v>4</v>
+      </c>
+      <c r="C6" s="88">
+        <v>1</v>
+      </c>
+      <c r="D6" s="83">
+        <v>3</v>
+      </c>
+      <c r="E6" s="84">
+        <v>6</v>
+      </c>
+      <c r="F6" s="85">
+        <v>2</v>
+      </c>
+      <c r="G6" s="91">
+        <v>7</v>
+      </c>
+      <c r="H6" s="84">
+        <v>5</v>
+      </c>
+      <c r="I6" s="85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="97">
+        <v>1</v>
+      </c>
+      <c r="B7" s="98">
+        <v>9</v>
+      </c>
+      <c r="C7" s="99">
+        <v>4</v>
+      </c>
+      <c r="D7" s="97">
+        <v>8</v>
+      </c>
+      <c r="E7" s="98">
+        <v>3</v>
+      </c>
+      <c r="F7" s="100">
+        <v>6</v>
+      </c>
+      <c r="G7" s="101">
+        <v>5</v>
+      </c>
+      <c r="H7" s="98">
+        <v>7</v>
+      </c>
+      <c r="I7" s="100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="81">
+        <v>5</v>
+      </c>
+      <c r="B8" s="77">
+        <v>6</v>
+      </c>
+      <c r="C8" s="87">
+        <v>7</v>
+      </c>
+      <c r="D8" s="81">
+        <v>2</v>
+      </c>
+      <c r="E8" s="77">
+        <v>1</v>
+      </c>
+      <c r="F8" s="82">
+        <v>4</v>
+      </c>
+      <c r="G8" s="90">
+        <v>3</v>
+      </c>
+      <c r="H8" s="77">
+        <v>8</v>
+      </c>
+      <c r="I8" s="82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="83">
+        <v>2</v>
+      </c>
+      <c r="B9" s="84">
+        <v>3</v>
+      </c>
+      <c r="C9" s="88">
+        <v>8</v>
+      </c>
+      <c r="D9" s="83">
+        <v>5</v>
+      </c>
+      <c r="E9" s="84">
+        <v>7</v>
+      </c>
+      <c r="F9" s="85">
+        <v>9</v>
+      </c>
+      <c r="G9" s="91">
+        <v>4</v>
+      </c>
+      <c r="H9" s="84">
+        <v>6</v>
+      </c>
+      <c r="I9" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="78">
+        <v>7</v>
+      </c>
+      <c r="B12" s="79">
+        <v>2</v>
+      </c>
+      <c r="C12" s="86">
+        <v>6</v>
+      </c>
+      <c r="D12" s="78">
+        <v>4</v>
+      </c>
+      <c r="E12" s="79">
+        <v>9</v>
+      </c>
+      <c r="F12" s="80">
+        <v>3</v>
+      </c>
+      <c r="G12" s="89">
+        <v>8</v>
+      </c>
+      <c r="H12" s="79">
+        <v>1</v>
+      </c>
+      <c r="I12" s="80">
+        <v>5</v>
+      </c>
+      <c r="J12" s="103"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="81">
+        <v>3</v>
+      </c>
+      <c r="B13" s="77">
+        <v>1</v>
+      </c>
+      <c r="C13" s="87">
+        <v>5</v>
+      </c>
+      <c r="D13" s="81">
+        <v>7</v>
+      </c>
+      <c r="E13" s="77">
+        <v>2</v>
+      </c>
+      <c r="F13" s="82">
+        <v>8</v>
+      </c>
+      <c r="G13" s="90">
+        <v>9</v>
+      </c>
+      <c r="H13" s="77">
+        <v>4</v>
+      </c>
+      <c r="I13" s="82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="92">
+        <v>4</v>
+      </c>
+      <c r="B14" s="93">
+        <v>8</v>
+      </c>
+      <c r="C14" s="94">
+        <v>9</v>
+      </c>
+      <c r="D14" s="92">
+        <v>6</v>
+      </c>
+      <c r="E14" s="93">
+        <v>5</v>
+      </c>
+      <c r="F14" s="95">
+        <v>1</v>
+      </c>
+      <c r="G14" s="96">
+        <v>2</v>
+      </c>
+      <c r="H14" s="93">
+        <v>3</v>
+      </c>
+      <c r="I14" s="95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="78">
+        <v>8</v>
+      </c>
+      <c r="B15" s="79">
+        <v>5</v>
+      </c>
+      <c r="C15" s="86">
+        <v>2</v>
+      </c>
+      <c r="D15" s="78">
+        <v>1</v>
+      </c>
+      <c r="E15" s="79">
+        <v>4</v>
+      </c>
+      <c r="F15" s="80">
+        <v>7</v>
+      </c>
+      <c r="G15" s="89">
+        <v>6</v>
+      </c>
+      <c r="H15" s="79">
+        <v>9</v>
+      </c>
+      <c r="I15" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="81">
+        <v>6</v>
+      </c>
+      <c r="B16" s="77">
+        <v>7</v>
+      </c>
+      <c r="C16" s="87">
+        <v>3</v>
+      </c>
+      <c r="D16" s="81">
+        <v>9</v>
+      </c>
+      <c r="E16" s="77">
+        <v>8</v>
+      </c>
+      <c r="F16" s="82">
+        <v>5</v>
+      </c>
+      <c r="G16" s="90">
+        <v>1</v>
+      </c>
+      <c r="H16" s="77">
+        <v>2</v>
+      </c>
+      <c r="I16" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="83">
+        <v>9</v>
+      </c>
+      <c r="B17" s="84">
+        <v>4</v>
+      </c>
+      <c r="C17" s="88">
+        <v>1</v>
+      </c>
+      <c r="D17" s="83">
+        <v>3</v>
+      </c>
+      <c r="E17" s="84">
+        <v>6</v>
+      </c>
+      <c r="F17" s="85">
+        <v>2</v>
+      </c>
+      <c r="G17" s="91">
+        <v>7</v>
+      </c>
+      <c r="H17" s="84">
+        <v>5</v>
+      </c>
+      <c r="I17" s="85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="97">
+        <v>1</v>
+      </c>
+      <c r="B18" s="98">
+        <v>9</v>
+      </c>
+      <c r="C18" s="99">
+        <v>4</v>
+      </c>
+      <c r="D18" s="97">
+        <v>8</v>
+      </c>
+      <c r="E18" s="98">
+        <v>3</v>
+      </c>
+      <c r="F18" s="100">
+        <v>6</v>
+      </c>
+      <c r="G18" s="101">
+        <v>5</v>
+      </c>
+      <c r="H18" s="98">
+        <v>7</v>
+      </c>
+      <c r="I18" s="100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="81">
+        <v>5</v>
+      </c>
+      <c r="B19" s="77">
+        <v>6</v>
+      </c>
+      <c r="C19" s="87">
+        <v>7</v>
+      </c>
+      <c r="D19" s="81">
+        <v>2</v>
+      </c>
+      <c r="E19" s="77">
+        <v>1</v>
+      </c>
+      <c r="F19" s="82">
+        <v>4</v>
+      </c>
+      <c r="G19" s="90">
+        <v>3</v>
+      </c>
+      <c r="H19" s="77">
+        <v>8</v>
+      </c>
+      <c r="I19" s="82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="83">
+        <v>2</v>
+      </c>
+      <c r="B20" s="84">
+        <v>3</v>
+      </c>
+      <c r="C20" s="88">
+        <v>8</v>
+      </c>
+      <c r="D20" s="83">
+        <v>5</v>
+      </c>
+      <c r="E20" s="84">
+        <v>7</v>
+      </c>
+      <c r="F20" s="85">
+        <v>9</v>
+      </c>
+      <c r="G20" s="91">
+        <v>4</v>
+      </c>
+      <c r="H20" s="84">
+        <v>6</v>
+      </c>
+      <c r="I20" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1071,15 +1641,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5">
         <v>2</v>
@@ -1098,7 +1668,7 @@
       </c>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>3</v>
       </c>
@@ -1117,7 +1687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>4</v>
       </c>
@@ -1134,7 +1704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5">
         <v>5</v>
@@ -1153,7 +1723,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="1"/>
       <c r="C5" s="14">
@@ -1172,7 +1742,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16">
         <v>4</v>
@@ -1191,7 +1761,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1208,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1227,7 +1797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16">
         <v>3</v>
@@ -1246,9 +1816,13 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>0</v>
       </c>
@@ -1258,7 +1832,7 @@
       <c r="C12" s="42">
         <v>6</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="71">
         <v>4</v>
       </c>
       <c r="E12" s="33">
@@ -1276,8 +1850,35 @@
       <c r="I12" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2</v>
+      </c>
+      <c r="M12" s="57">
+        <v>6</v>
+      </c>
+      <c r="N12" s="17">
+        <v>4</v>
+      </c>
+      <c r="O12" s="59">
+        <v>9</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="58">
+        <v>8</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <v>3</v>
       </c>
@@ -1305,8 +1906,35 @@
       <c r="I13" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="7">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="48">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>7</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43">
         <v>4</v>
       </c>
@@ -1316,7 +1944,7 @@
       <c r="C14" s="37">
         <v>0</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="72">
         <v>6</v>
       </c>
       <c r="E14" s="44">
@@ -1334,15 +1962,42 @@
       <c r="I14" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="60">
+        <v>4</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
+      <c r="M14" s="53">
+        <v>0</v>
+      </c>
+      <c r="N14" s="60">
+        <v>6</v>
+      </c>
+      <c r="O14" s="20">
+        <v>5</v>
+      </c>
+      <c r="P14" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="54">
+        <v>0</v>
+      </c>
+      <c r="R14" s="21">
+        <v>0</v>
+      </c>
+      <c r="S14" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>0</v>
       </c>
       <c r="B15" s="41">
         <v>5</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="73">
         <v>2</v>
       </c>
       <c r="D15" s="41">
@@ -1363,8 +2018,35 @@
       <c r="I15" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5</v>
+      </c>
+      <c r="M15" s="57">
+        <v>2</v>
+      </c>
+      <c r="N15" s="17">
+        <v>1</v>
+      </c>
+      <c r="O15" s="18">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="50">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>9</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>0</v>
       </c>
@@ -1392,8 +2074,35 @@
       <c r="I16" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="61">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="62">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>0</v>
       </c>
@@ -1418,11 +2127,38 @@
       <c r="H17" s="46">
         <v>5</v>
       </c>
-      <c r="I17" s="47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="74">
+        <v>8</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
+        <v>4</v>
+      </c>
+      <c r="M17" s="49">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>3</v>
+      </c>
+      <c r="O17" s="10">
+        <v>6</v>
+      </c>
+      <c r="P17" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="52">
+        <v>0</v>
+      </c>
+      <c r="R17" s="16">
+        <v>5</v>
+      </c>
+      <c r="S17" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>1</v>
       </c>
@@ -1450,15 +2186,42 @@
       <c r="I18" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="63">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="55">
+        <v>0</v>
+      </c>
+      <c r="N18" s="67">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
+        <v>3</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="56">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
         <v>5</v>
       </c>
       <c r="B19" s="36">
         <v>0</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="75">
         <v>7</v>
       </c>
       <c r="D19" s="44">
@@ -1479,8 +2242,35 @@
       <c r="I19" s="45">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="7">
+        <v>5</v>
+      </c>
+      <c r="L19" s="66">
+        <v>6</v>
+      </c>
+      <c r="M19" s="61">
+        <v>7</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="68">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>0</v>
       </c>
@@ -1490,7 +2280,7 @@
       <c r="C20" s="47">
         <v>8</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="76">
         <v>5</v>
       </c>
       <c r="E20" s="39">
@@ -1508,8 +2298,42 @@
       <c r="I20" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>3</v>
+      </c>
+      <c r="M20" s="64">
+        <v>8</v>
+      </c>
+      <c r="N20" s="9">
+        <v>5</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="65">
+        <v>4</v>
+      </c>
+      <c r="R20" s="16">
+        <v>6</v>
+      </c>
+      <c r="S20" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>41</v>
+      </c>
+      <c r="S21" s="102">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1517,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C42:N44"/>
+  <dimension ref="A42:N110"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42:L44"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +2352,7 @@
     <col min="1" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C42" s="30">
         <v>1</v>
       </c>
@@ -1566,7 +2390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C43" s="30">
         <v>1</v>
       </c>
@@ -1604,7 +2428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C44" s="30">
         <v>1</v>
       </c>
@@ -1640,6 +2464,1572 @@
       </c>
       <c r="N44" s="29">
         <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>1</v>
+      </c>
+      <c r="B47" s="29">
+        <v>1</v>
+      </c>
+      <c r="C47" s="29">
+        <v>0</v>
+      </c>
+      <c r="D47" s="29">
+        <v>0</v>
+      </c>
+      <c r="E47" s="29">
+        <v>0</v>
+      </c>
+      <c r="F47" s="29">
+        <v>0</v>
+      </c>
+      <c r="G47" s="29">
+        <v>0</v>
+      </c>
+      <c r="H47" s="29">
+        <v>0</v>
+      </c>
+      <c r="I47" s="29">
+        <v>7</v>
+      </c>
+      <c r="J47" s="29">
+        <v>0</v>
+      </c>
+      <c r="K47" s="29">
+        <v>9</v>
+      </c>
+      <c r="L47" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
+        <v>0</v>
+      </c>
+      <c r="B48" s="29">
+        <v>0</v>
+      </c>
+      <c r="C48" s="29">
+        <v>0</v>
+      </c>
+      <c r="D48" s="29">
+        <v>0</v>
+      </c>
+      <c r="E48" s="29">
+        <v>0</v>
+      </c>
+      <c r="F48" s="29">
+        <v>0</v>
+      </c>
+      <c r="G48" s="29">
+        <v>0</v>
+      </c>
+      <c r="H48" s="29">
+        <v>0</v>
+      </c>
+      <c r="I48" s="29">
+        <v>0</v>
+      </c>
+      <c r="J48" s="29">
+        <v>0</v>
+      </c>
+      <c r="K48" s="29">
+        <v>9</v>
+      </c>
+      <c r="L48" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="29">
+        <v>1</v>
+      </c>
+      <c r="B49" s="29">
+        <v>6</v>
+      </c>
+      <c r="C49" s="29">
+        <v>0</v>
+      </c>
+      <c r="D49" s="29">
+        <v>0</v>
+      </c>
+      <c r="E49" s="29">
+        <v>3</v>
+      </c>
+      <c r="F49" s="29">
+        <v>0</v>
+      </c>
+      <c r="G49" s="29">
+        <v>0</v>
+      </c>
+      <c r="H49" s="29">
+        <v>0</v>
+      </c>
+      <c r="I49" s="29">
+        <v>0</v>
+      </c>
+      <c r="J49" s="29">
+        <v>0</v>
+      </c>
+      <c r="K49" s="29">
+        <v>9</v>
+      </c>
+      <c r="L49" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>1</v>
+      </c>
+      <c r="B50" s="29">
+        <v>9</v>
+      </c>
+      <c r="C50" s="29">
+        <v>0</v>
+      </c>
+      <c r="D50" s="29">
+        <v>0</v>
+      </c>
+      <c r="E50" s="29">
+        <v>3</v>
+      </c>
+      <c r="F50" s="29">
+        <v>0</v>
+      </c>
+      <c r="G50" s="29">
+        <v>5</v>
+      </c>
+      <c r="H50" s="29">
+        <v>0</v>
+      </c>
+      <c r="I50" s="29">
+        <v>0</v>
+      </c>
+      <c r="J50" s="29">
+        <v>0</v>
+      </c>
+      <c r="K50" s="29">
+        <v>0</v>
+      </c>
+      <c r="L50" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="29">
+        <v>2</v>
+      </c>
+      <c r="B51" s="29">
+        <v>2</v>
+      </c>
+      <c r="C51" s="29">
+        <v>1</v>
+      </c>
+      <c r="D51" s="29">
+        <v>0</v>
+      </c>
+      <c r="E51" s="29">
+        <v>0</v>
+      </c>
+      <c r="F51" s="29">
+        <v>0</v>
+      </c>
+      <c r="G51" s="29">
+        <v>0</v>
+      </c>
+      <c r="H51" s="29">
+        <v>0</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+      <c r="J51" s="29">
+        <v>0</v>
+      </c>
+      <c r="K51" s="29">
+        <v>9</v>
+      </c>
+      <c r="L51" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="29">
+        <v>2</v>
+      </c>
+      <c r="B52" s="29">
+        <v>3</v>
+      </c>
+      <c r="C52" s="29">
+        <v>1</v>
+      </c>
+      <c r="D52" s="29">
+        <v>0</v>
+      </c>
+      <c r="E52" s="29">
+        <v>0</v>
+      </c>
+      <c r="F52" s="29">
+        <v>0</v>
+      </c>
+      <c r="G52" s="29">
+        <v>5</v>
+      </c>
+      <c r="H52" s="29">
+        <v>0</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+      <c r="J52" s="29">
+        <v>0</v>
+      </c>
+      <c r="K52" s="29">
+        <v>9</v>
+      </c>
+      <c r="L52" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="29">
+        <v>2</v>
+      </c>
+      <c r="B53" s="29">
+        <v>5</v>
+      </c>
+      <c r="C53" s="29">
+        <v>1</v>
+      </c>
+      <c r="D53" s="29">
+        <v>2</v>
+      </c>
+      <c r="E53" s="29">
+        <v>0</v>
+      </c>
+      <c r="F53" s="29">
+        <v>0</v>
+      </c>
+      <c r="G53" s="29">
+        <v>0</v>
+      </c>
+      <c r="H53" s="29">
+        <v>0</v>
+      </c>
+      <c r="I53" s="29">
+        <v>0</v>
+      </c>
+      <c r="J53" s="29">
+        <v>0</v>
+      </c>
+      <c r="K53" s="29">
+        <v>9</v>
+      </c>
+      <c r="L53" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="29">
+        <v>2</v>
+      </c>
+      <c r="B54" s="29">
+        <v>7</v>
+      </c>
+      <c r="C54" s="29">
+        <v>0</v>
+      </c>
+      <c r="D54" s="29">
+        <v>2</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0</v>
+      </c>
+      <c r="F54" s="29">
+        <v>0</v>
+      </c>
+      <c r="G54" s="29">
+        <v>5</v>
+      </c>
+      <c r="H54" s="29">
+        <v>0</v>
+      </c>
+      <c r="I54" s="29">
+        <v>0</v>
+      </c>
+      <c r="J54" s="29">
+        <v>0</v>
+      </c>
+      <c r="K54" s="29">
+        <v>9</v>
+      </c>
+      <c r="L54" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="29">
+        <v>2</v>
+      </c>
+      <c r="B55" s="29">
+        <v>8</v>
+      </c>
+      <c r="C55" s="29">
+        <v>0</v>
+      </c>
+      <c r="D55" s="29">
+        <v>2</v>
+      </c>
+      <c r="E55" s="29">
+        <v>0</v>
+      </c>
+      <c r="F55" s="29">
+        <v>4</v>
+      </c>
+      <c r="G55" s="29">
+        <v>0</v>
+      </c>
+      <c r="H55" s="29">
+        <v>0</v>
+      </c>
+      <c r="I55" s="29">
+        <v>0</v>
+      </c>
+      <c r="J55" s="29">
+        <v>0</v>
+      </c>
+      <c r="K55" s="29">
+        <v>0</v>
+      </c>
+      <c r="L55" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="29">
+        <v>3</v>
+      </c>
+      <c r="B56" s="29">
+        <v>2</v>
+      </c>
+      <c r="C56" s="29">
+        <v>1</v>
+      </c>
+      <c r="D56" s="29">
+        <v>0</v>
+      </c>
+      <c r="E56" s="29">
+        <v>0</v>
+      </c>
+      <c r="F56" s="29">
+        <v>0</v>
+      </c>
+      <c r="G56" s="29">
+        <v>0</v>
+      </c>
+      <c r="H56" s="29">
+        <v>0</v>
+      </c>
+      <c r="I56" s="29">
+        <v>0</v>
+      </c>
+      <c r="J56" s="29">
+        <v>8</v>
+      </c>
+      <c r="K56" s="29">
+        <v>9</v>
+      </c>
+      <c r="L56" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="29">
+        <v>3</v>
+      </c>
+      <c r="B57" s="29">
+        <v>3</v>
+      </c>
+      <c r="C57" s="29">
+        <v>1</v>
+      </c>
+      <c r="D57" s="29">
+        <v>0</v>
+      </c>
+      <c r="E57" s="29">
+        <v>0</v>
+      </c>
+      <c r="F57" s="29">
+        <v>0</v>
+      </c>
+      <c r="G57" s="29">
+        <v>0</v>
+      </c>
+      <c r="H57" s="29">
+        <v>0</v>
+      </c>
+      <c r="I57" s="29">
+        <v>0</v>
+      </c>
+      <c r="J57" s="29">
+        <v>0</v>
+      </c>
+      <c r="K57" s="29">
+        <v>9</v>
+      </c>
+      <c r="L57" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="29">
+        <v>3</v>
+      </c>
+      <c r="B58" s="29">
+        <v>6</v>
+      </c>
+      <c r="C58" s="29">
+        <v>1</v>
+      </c>
+      <c r="D58" s="29">
+        <v>0</v>
+      </c>
+      <c r="E58" s="29">
+        <v>3</v>
+      </c>
+      <c r="F58" s="29">
+        <v>0</v>
+      </c>
+      <c r="G58" s="29">
+        <v>0</v>
+      </c>
+      <c r="H58" s="29">
+        <v>0</v>
+      </c>
+      <c r="I58" s="29">
+        <v>0</v>
+      </c>
+      <c r="J58" s="29">
+        <v>0</v>
+      </c>
+      <c r="K58" s="29">
+        <v>9</v>
+      </c>
+      <c r="L58" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="29">
+        <v>3</v>
+      </c>
+      <c r="B59" s="29">
+        <v>7</v>
+      </c>
+      <c r="C59" s="29">
+        <v>0</v>
+      </c>
+      <c r="D59" s="29">
+        <v>2</v>
+      </c>
+      <c r="E59" s="29">
+        <v>3</v>
+      </c>
+      <c r="F59" s="29">
+        <v>0</v>
+      </c>
+      <c r="G59" s="29">
+        <v>0</v>
+      </c>
+      <c r="H59" s="29">
+        <v>0</v>
+      </c>
+      <c r="I59" s="29">
+        <v>0</v>
+      </c>
+      <c r="J59" s="29">
+        <v>0</v>
+      </c>
+      <c r="K59" s="29">
+        <v>9</v>
+      </c>
+      <c r="L59" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="29">
+        <v>4</v>
+      </c>
+      <c r="B60" s="29">
+        <v>1</v>
+      </c>
+      <c r="C60" s="29">
+        <v>0</v>
+      </c>
+      <c r="D60" s="29">
+        <v>0</v>
+      </c>
+      <c r="E60" s="29">
+        <v>0</v>
+      </c>
+      <c r="F60" s="29">
+        <v>0</v>
+      </c>
+      <c r="G60" s="29">
+        <v>0</v>
+      </c>
+      <c r="H60" s="29">
+        <v>6</v>
+      </c>
+      <c r="I60" s="29">
+        <v>0</v>
+      </c>
+      <c r="J60" s="29">
+        <v>8</v>
+      </c>
+      <c r="K60" s="29">
+        <v>0</v>
+      </c>
+      <c r="L60" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="29">
+        <v>4</v>
+      </c>
+      <c r="B61" s="29">
+        <v>5</v>
+      </c>
+      <c r="C61" s="29">
+        <v>0</v>
+      </c>
+      <c r="D61" s="29">
+        <v>0</v>
+      </c>
+      <c r="E61" s="29">
+        <v>0</v>
+      </c>
+      <c r="F61" s="29">
+        <v>4</v>
+      </c>
+      <c r="G61" s="29">
+        <v>0</v>
+      </c>
+      <c r="H61" s="29">
+        <v>6</v>
+      </c>
+      <c r="I61" s="29">
+        <v>0</v>
+      </c>
+      <c r="J61" s="29">
+        <v>8</v>
+      </c>
+      <c r="K61" s="29">
+        <v>0</v>
+      </c>
+      <c r="L61" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="29">
+        <v>4</v>
+      </c>
+      <c r="B62" s="29">
+        <v>7</v>
+      </c>
+      <c r="C62" s="29">
+        <v>0</v>
+      </c>
+      <c r="D62" s="29">
+        <v>0</v>
+      </c>
+      <c r="E62" s="29">
+        <v>3</v>
+      </c>
+      <c r="F62" s="29">
+        <v>0</v>
+      </c>
+      <c r="G62" s="29">
+        <v>0</v>
+      </c>
+      <c r="H62" s="29">
+        <v>6</v>
+      </c>
+      <c r="I62" s="29">
+        <v>0</v>
+      </c>
+      <c r="J62" s="29">
+        <v>0</v>
+      </c>
+      <c r="K62" s="29">
+        <v>0</v>
+      </c>
+      <c r="L62" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="29">
+        <v>4</v>
+      </c>
+      <c r="B63" s="29">
+        <v>9</v>
+      </c>
+      <c r="C63" s="29">
+        <v>0</v>
+      </c>
+      <c r="D63" s="29">
+        <v>0</v>
+      </c>
+      <c r="E63" s="29">
+        <v>3</v>
+      </c>
+      <c r="F63" s="29">
+        <v>4</v>
+      </c>
+      <c r="G63" s="29">
+        <v>0</v>
+      </c>
+      <c r="H63" s="29">
+        <v>0</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0</v>
+      </c>
+      <c r="J63" s="29">
+        <v>0</v>
+      </c>
+      <c r="K63" s="29">
+        <v>0</v>
+      </c>
+      <c r="L63" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="29">
+        <v>5</v>
+      </c>
+      <c r="B65" s="29">
+        <v>1</v>
+      </c>
+      <c r="C65" s="29">
+        <v>0</v>
+      </c>
+      <c r="D65" s="29">
+        <v>0</v>
+      </c>
+      <c r="E65" s="29">
+        <v>0</v>
+      </c>
+      <c r="F65" s="29">
+        <v>0</v>
+      </c>
+      <c r="G65" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="29">
+        <v>6</v>
+      </c>
+      <c r="B66" s="29">
+        <v>7</v>
+      </c>
+      <c r="C66" s="29">
+        <v>8</v>
+      </c>
+      <c r="D66" s="29">
+        <v>0</v>
+      </c>
+      <c r="E66" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="29">
+        <v>5</v>
+      </c>
+      <c r="B67" s="29">
+        <v>2</v>
+      </c>
+      <c r="C67" s="29">
+        <v>0</v>
+      </c>
+      <c r="D67" s="29">
+        <v>0</v>
+      </c>
+      <c r="E67" s="29">
+        <v>0</v>
+      </c>
+      <c r="F67" s="29">
+        <v>0</v>
+      </c>
+      <c r="G67" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="29">
+        <v>6</v>
+      </c>
+      <c r="B68" s="29">
+        <v>7</v>
+      </c>
+      <c r="C68" s="29">
+        <v>8</v>
+      </c>
+      <c r="D68" s="29">
+        <v>0</v>
+      </c>
+      <c r="E68" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="29">
+        <v>5</v>
+      </c>
+      <c r="B69" s="29">
+        <v>5</v>
+      </c>
+      <c r="C69" s="29">
+        <v>0</v>
+      </c>
+      <c r="D69" s="29">
+        <v>0</v>
+      </c>
+      <c r="E69" s="29">
+        <v>0</v>
+      </c>
+      <c r="F69" s="29">
+        <v>4</v>
+      </c>
+      <c r="G69" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="29">
+        <v>6</v>
+      </c>
+      <c r="B70" s="29">
+        <v>0</v>
+      </c>
+      <c r="C70" s="29">
+        <v>8</v>
+      </c>
+      <c r="D70" s="29">
+        <v>0</v>
+      </c>
+      <c r="E70" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="29">
+        <v>5</v>
+      </c>
+      <c r="B71" s="29">
+        <v>8</v>
+      </c>
+      <c r="C71" s="29">
+        <v>0</v>
+      </c>
+      <c r="D71" s="29">
+        <v>2</v>
+      </c>
+      <c r="E71" s="29">
+        <v>0</v>
+      </c>
+      <c r="F71" s="29">
+        <v>4</v>
+      </c>
+      <c r="G71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="29">
+        <v>0</v>
+      </c>
+      <c r="B72" s="29">
+        <v>7</v>
+      </c>
+      <c r="C72" s="29">
+        <v>0</v>
+      </c>
+      <c r="D72" s="29">
+        <v>0</v>
+      </c>
+      <c r="E72" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="29">
+        <v>0</v>
+      </c>
+      <c r="B73" s="29">
+        <v>0</v>
+      </c>
+      <c r="C73" s="29">
+        <v>0</v>
+      </c>
+      <c r="D73" s="29">
+        <v>0</v>
+      </c>
+      <c r="E73" s="29">
+        <v>0</v>
+      </c>
+      <c r="F73" s="29">
+        <v>4</v>
+      </c>
+      <c r="G73" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="29">
+        <v>0</v>
+      </c>
+      <c r="B74" s="29">
+        <v>0</v>
+      </c>
+      <c r="C74" s="29">
+        <v>0</v>
+      </c>
+      <c r="D74" s="29">
+        <v>0</v>
+      </c>
+      <c r="E74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="29">
+        <v>6</v>
+      </c>
+      <c r="B75" s="29">
+        <v>1</v>
+      </c>
+      <c r="C75" s="29">
+        <v>0</v>
+      </c>
+      <c r="D75" s="29">
+        <v>0</v>
+      </c>
+      <c r="E75" s="29">
+        <v>0</v>
+      </c>
+      <c r="F75" s="29">
+        <v>0</v>
+      </c>
+      <c r="G75" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="29">
+        <v>6</v>
+      </c>
+      <c r="B76" s="29">
+        <v>7</v>
+      </c>
+      <c r="C76" s="29">
+        <v>0</v>
+      </c>
+      <c r="D76" s="29">
+        <v>9</v>
+      </c>
+      <c r="E76" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="29">
+        <v>6</v>
+      </c>
+      <c r="B77" s="29">
+        <v>3</v>
+      </c>
+      <c r="C77" s="29">
+        <v>1</v>
+      </c>
+      <c r="D77" s="29">
+        <v>0</v>
+      </c>
+      <c r="E77" s="29">
+        <v>0</v>
+      </c>
+      <c r="F77" s="29">
+        <v>0</v>
+      </c>
+      <c r="G77" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="29">
+        <v>0</v>
+      </c>
+      <c r="B78" s="29">
+        <v>0</v>
+      </c>
+      <c r="C78" s="29">
+        <v>0</v>
+      </c>
+      <c r="D78" s="29">
+        <v>9</v>
+      </c>
+      <c r="E78" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="29">
+        <v>0</v>
+      </c>
+      <c r="B79" s="29">
+        <v>0</v>
+      </c>
+      <c r="C79" s="29">
+        <v>0</v>
+      </c>
+      <c r="D79" s="29">
+        <v>0</v>
+      </c>
+      <c r="E79" s="29">
+        <v>0</v>
+      </c>
+      <c r="F79" s="29">
+        <v>0</v>
+      </c>
+      <c r="G79" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="29">
+        <v>6</v>
+      </c>
+      <c r="B80" s="29">
+        <v>0</v>
+      </c>
+      <c r="C80" s="29">
+        <v>0</v>
+      </c>
+      <c r="D80" s="29">
+        <v>0</v>
+      </c>
+      <c r="E80" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="29">
+        <v>6</v>
+      </c>
+      <c r="B81" s="29">
+        <v>7</v>
+      </c>
+      <c r="C81" s="29">
+        <v>0</v>
+      </c>
+      <c r="D81" s="29">
+        <v>0</v>
+      </c>
+      <c r="E81" s="29">
+        <v>0</v>
+      </c>
+      <c r="F81" s="29">
+        <v>0</v>
+      </c>
+      <c r="G81" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="29">
+        <v>6</v>
+      </c>
+      <c r="B82" s="29">
+        <v>7</v>
+      </c>
+      <c r="C82" s="29">
+        <v>0</v>
+      </c>
+      <c r="D82" s="29">
+        <v>0</v>
+      </c>
+      <c r="E82" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="29">
+        <v>7</v>
+      </c>
+      <c r="B83" s="29">
+        <v>2</v>
+      </c>
+      <c r="C83" s="29">
+        <v>0</v>
+      </c>
+      <c r="D83" s="29">
+        <v>0</v>
+      </c>
+      <c r="E83" s="29">
+        <v>0</v>
+      </c>
+      <c r="F83" s="29">
+        <v>0</v>
+      </c>
+      <c r="G83" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="29">
+        <v>6</v>
+      </c>
+      <c r="B84" s="29">
+        <v>0</v>
+      </c>
+      <c r="C84" s="29">
+        <v>0</v>
+      </c>
+      <c r="D84" s="29">
+        <v>9</v>
+      </c>
+      <c r="E84" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="29">
+        <v>7</v>
+      </c>
+      <c r="B85" s="29">
+        <v>3</v>
+      </c>
+      <c r="C85" s="29">
+        <v>0</v>
+      </c>
+      <c r="D85" s="29">
+        <v>0</v>
+      </c>
+      <c r="E85" s="29">
+        <v>0</v>
+      </c>
+      <c r="F85" s="29">
+        <v>4</v>
+      </c>
+      <c r="G85" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="29">
+        <v>0</v>
+      </c>
+      <c r="B86" s="29">
+        <v>0</v>
+      </c>
+      <c r="C86" s="29">
+        <v>0</v>
+      </c>
+      <c r="D86" s="29">
+        <v>9</v>
+      </c>
+      <c r="E86" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="29">
+        <v>0</v>
+      </c>
+      <c r="B87" s="29">
+        <v>0</v>
+      </c>
+      <c r="C87" s="29">
+        <v>0</v>
+      </c>
+      <c r="D87" s="29">
+        <v>0</v>
+      </c>
+      <c r="E87" s="29">
+        <v>0</v>
+      </c>
+      <c r="F87" s="29">
+        <v>0</v>
+      </c>
+      <c r="G87" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="29">
+        <v>0</v>
+      </c>
+      <c r="B88" s="29">
+        <v>0</v>
+      </c>
+      <c r="C88" s="29">
+        <v>8</v>
+      </c>
+      <c r="D88" s="29">
+        <v>0</v>
+      </c>
+      <c r="E88" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="29">
+        <v>7</v>
+      </c>
+      <c r="B89" s="29">
+        <v>6</v>
+      </c>
+      <c r="C89" s="29">
+        <v>0</v>
+      </c>
+      <c r="D89" s="29">
+        <v>0</v>
+      </c>
+      <c r="E89" s="29">
+        <v>0</v>
+      </c>
+      <c r="F89" s="29">
+        <v>0</v>
+      </c>
+      <c r="G89" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="29">
+        <v>6</v>
+      </c>
+      <c r="B90" s="29">
+        <v>0</v>
+      </c>
+      <c r="C90" s="29">
+        <v>0</v>
+      </c>
+      <c r="D90" s="29">
+        <v>9</v>
+      </c>
+      <c r="E90" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="29">
+        <v>7</v>
+      </c>
+      <c r="B91" s="29">
+        <v>7</v>
+      </c>
+      <c r="C91" s="29">
+        <v>0</v>
+      </c>
+      <c r="D91" s="29">
+        <v>0</v>
+      </c>
+      <c r="E91" s="29">
+        <v>0</v>
+      </c>
+      <c r="F91" s="29">
+        <v>0</v>
+      </c>
+      <c r="G91" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="29">
+        <v>0</v>
+      </c>
+      <c r="B92" s="29">
+        <v>7</v>
+      </c>
+      <c r="C92" s="29">
+        <v>0</v>
+      </c>
+      <c r="D92" s="29">
+        <v>0</v>
+      </c>
+      <c r="E92" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="29">
+        <v>7</v>
+      </c>
+      <c r="B93" s="29">
+        <v>8</v>
+      </c>
+      <c r="C93" s="29">
+        <v>0</v>
+      </c>
+      <c r="D93" s="29">
+        <v>0</v>
+      </c>
+      <c r="E93" s="29">
+        <v>0</v>
+      </c>
+      <c r="F93" s="29">
+        <v>0</v>
+      </c>
+      <c r="G93" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="29">
+        <v>0</v>
+      </c>
+      <c r="B94" s="29">
+        <v>7</v>
+      </c>
+      <c r="C94" s="29">
+        <v>8</v>
+      </c>
+      <c r="D94" s="29">
+        <v>0</v>
+      </c>
+      <c r="E94" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="29">
+        <v>0</v>
+      </c>
+      <c r="B95" s="29">
+        <v>0</v>
+      </c>
+      <c r="C95" s="29">
+        <v>0</v>
+      </c>
+      <c r="D95" s="29">
+        <v>0</v>
+      </c>
+      <c r="E95" s="29">
+        <v>0</v>
+      </c>
+      <c r="F95" s="29">
+        <v>0</v>
+      </c>
+      <c r="G95" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="29">
+        <v>6</v>
+      </c>
+      <c r="B96" s="29">
+        <v>0</v>
+      </c>
+      <c r="C96" s="29">
+        <v>0</v>
+      </c>
+      <c r="D96" s="29">
+        <v>0</v>
+      </c>
+      <c r="E96" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="29">
+        <v>8</v>
+      </c>
+      <c r="B97" s="29">
+        <v>5</v>
+      </c>
+      <c r="C97" s="29">
+        <v>1</v>
+      </c>
+      <c r="D97" s="29">
+        <v>0</v>
+      </c>
+      <c r="E97" s="29">
+        <v>0</v>
+      </c>
+      <c r="F97" s="29">
+        <v>0</v>
+      </c>
+      <c r="G97" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="29">
+        <v>6</v>
+      </c>
+      <c r="B98" s="29">
+        <v>0</v>
+      </c>
+      <c r="C98" s="29">
+        <v>8</v>
+      </c>
+      <c r="D98" s="29">
+        <v>0</v>
+      </c>
+      <c r="E98" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="29">
+        <v>0</v>
+      </c>
+      <c r="B99" s="29">
+        <v>0</v>
+      </c>
+      <c r="C99" s="29">
+        <v>0</v>
+      </c>
+      <c r="D99" s="29">
+        <v>0</v>
+      </c>
+      <c r="E99" s="29">
+        <v>3</v>
+      </c>
+      <c r="F99" s="29">
+        <v>0</v>
+      </c>
+      <c r="G99" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="29">
+        <v>0</v>
+      </c>
+      <c r="B100" s="29">
+        <v>0</v>
+      </c>
+      <c r="C100" s="29">
+        <v>0</v>
+      </c>
+      <c r="D100" s="29">
+        <v>0</v>
+      </c>
+      <c r="E100" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="29">
+        <v>8</v>
+      </c>
+      <c r="B101" s="29">
+        <v>8</v>
+      </c>
+      <c r="C101" s="29">
+        <v>0</v>
+      </c>
+      <c r="D101" s="29">
+        <v>0</v>
+      </c>
+      <c r="E101" s="29">
+        <v>3</v>
+      </c>
+      <c r="F101" s="29">
+        <v>0</v>
+      </c>
+      <c r="G101" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="29">
+        <v>0</v>
+      </c>
+      <c r="B102" s="29">
+        <v>0</v>
+      </c>
+      <c r="C102" s="29">
+        <v>8</v>
+      </c>
+      <c r="D102" s="29">
+        <v>0</v>
+      </c>
+      <c r="E102" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="29">
+        <v>9</v>
+      </c>
+      <c r="B103" s="29">
+        <v>1</v>
+      </c>
+      <c r="C103" s="29">
+        <v>0</v>
+      </c>
+      <c r="D103" s="29">
+        <v>2</v>
+      </c>
+      <c r="E103" s="29">
+        <v>0</v>
+      </c>
+      <c r="F103" s="29">
+        <v>0</v>
+      </c>
+      <c r="G103" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="29">
+        <v>0</v>
+      </c>
+      <c r="B104" s="29">
+        <v>0</v>
+      </c>
+      <c r="C104" s="29">
+        <v>0</v>
+      </c>
+      <c r="D104" s="29">
+        <v>9</v>
+      </c>
+      <c r="E104" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="29">
+        <v>9</v>
+      </c>
+      <c r="B105" s="29">
+        <v>5</v>
+      </c>
+      <c r="C105" s="29">
+        <v>1</v>
+      </c>
+      <c r="D105" s="29">
+        <v>0</v>
+      </c>
+      <c r="E105" s="29">
+        <v>0</v>
+      </c>
+      <c r="F105" s="29">
+        <v>0</v>
+      </c>
+      <c r="G105" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="29">
+        <v>0</v>
+      </c>
+      <c r="B106" s="29">
+        <v>7</v>
+      </c>
+      <c r="C106" s="29">
+        <v>0</v>
+      </c>
+      <c r="D106" s="29">
+        <v>9</v>
+      </c>
+      <c r="E106" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="29">
+        <v>9</v>
+      </c>
+      <c r="B107" s="29">
+        <v>6</v>
+      </c>
+      <c r="C107" s="29">
+        <v>1</v>
+      </c>
+      <c r="D107" s="29">
+        <v>0</v>
+      </c>
+      <c r="E107" s="29">
+        <v>0</v>
+      </c>
+      <c r="F107" s="29">
+        <v>0</v>
+      </c>
+      <c r="G107" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="29">
+        <v>0</v>
+      </c>
+      <c r="B108" s="29">
+        <v>0</v>
+      </c>
+      <c r="C108" s="29">
+        <v>0</v>
+      </c>
+      <c r="D108" s="29">
+        <v>9</v>
+      </c>
+      <c r="E108" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="29">
+        <v>0</v>
+      </c>
+      <c r="B109" s="29">
+        <v>0</v>
+      </c>
+      <c r="C109" s="29">
+        <v>1</v>
+      </c>
+      <c r="D109" s="29">
+        <v>0</v>
+      </c>
+      <c r="E109" s="29">
+        <v>0</v>
+      </c>
+      <c r="F109" s="29">
+        <v>0</v>
+      </c>
+      <c r="G109" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="29">
+        <v>0</v>
+      </c>
+      <c r="B110" s="29">
+        <v>0</v>
+      </c>
+      <c r="C110" s="29">
+        <v>0</v>
+      </c>
+      <c r="D110" s="29">
+        <v>0</v>
+      </c>
+      <c r="E110" s="29">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
